--- a/DOC/Develop-DOC/社内管理システムリリース手順.xlsx
+++ b/DOC/Develop-DOC/社内管理システムリリース手順.xlsx
@@ -1,25 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24729"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\pleiades\workspace\ControlFiles\Develop-DOC\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\softtech\git\emsm\DOC\Develop-DOC\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C51A481-F9B0-488A-BF8C-BAC35AB90E6C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CEB3EF26-EED4-41E7-9C5F-2997BE3DAC18}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="270" yWindow="720" windowWidth="28005" windowHeight="14880" xr2:uid="{5EBA1376-9CFD-46F8-93FE-EE52FC0A3149}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="3" xr2:uid="{5EBA1376-9CFD-46F8-93FE-EE52FC0A3149}"/>
   </bookViews>
   <sheets>
     <sheet name="修正履歴" sheetId="7" r:id="rId1"/>
     <sheet name="リリース（WAR)" sheetId="4" r:id="rId2"/>
     <sheet name="リリース (JAR)" sheetId="5" r:id="rId3"/>
-    <sheet name="開発環境構築-古い" sheetId="1" state="hidden" r:id="rId4"/>
-    <sheet name="DB構築" sheetId="2" state="hidden" r:id="rId5"/>
-    <sheet name="DEBUG環境作成（Office)-古い" sheetId="3" state="hidden" r:id="rId6"/>
-    <sheet name="SpringBoot + JSP-古い" sheetId="6" state="hidden" r:id="rId7"/>
+    <sheet name="REACT" sheetId="8" r:id="rId4"/>
+    <sheet name="開発環境構築-古い" sheetId="1" state="hidden" r:id="rId5"/>
+    <sheet name="DB構築" sheetId="2" state="hidden" r:id="rId6"/>
+    <sheet name="DEBUG環境作成（Office)-古い" sheetId="3" state="hidden" r:id="rId7"/>
+    <sheet name="SpringBoot + JSP-古い" sheetId="6" state="hidden" r:id="rId8"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -31,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="149">
   <si>
     <t>１）Eclipseダウンロード</t>
     <phoneticPr fontId="1"/>
@@ -860,6 +861,231 @@
     </rPh>
     <rPh sb="26" eb="28">
       <t>ヘンコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>REACTで画面更新された場合の手順：</t>
+    <rPh sb="6" eb="8">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>コウシン</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>テジュン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>１）</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>URLを本番用変更</t>
+    <rPh sb="4" eb="6">
+      <t>ホンバン</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>ヨウ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ヘンコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>変更前：</t>
+    <rPh sb="0" eb="2">
+      <t>ヘンコウ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>マエ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>変更後：</t>
+    <rPh sb="0" eb="2">
+      <t>ヘンコウ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ゴ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>APIを呼び出す所も</t>
+    <rPh sb="4" eb="5">
+      <t>ヨ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>ダ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>トコロ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>変更後：</t>
+    <rPh sb="0" eb="3">
+      <t>ヘンコウゴ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>(複数個所の場合、全部。面倒くさい。いい方法あるかな？）</t>
+    <rPh sb="1" eb="3">
+      <t>フクスウ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>カショ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ゼンブ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>メンドウ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>ホウホウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>3)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>emsm/src/main/resources/static 中、testPath.js以外ファイル及びサブフォルダーを全部削除</t>
+    <rPh sb="31" eb="32">
+      <t>ナカ</t>
+    </rPh>
+    <rPh sb="44" eb="46">
+      <t>イガイ</t>
+    </rPh>
+    <rPh sb="50" eb="51">
+      <t>オヨ</t>
+    </rPh>
+    <rPh sb="60" eb="62">
+      <t>ゼンブ</t>
+    </rPh>
+    <rPh sb="62" eb="64">
+      <t>サクジョ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>4)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Reactをbuildする</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Vscodeのターミナルで</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>npm run build</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>を実行</t>
+    <rPh sb="1" eb="3">
+      <t>ジッコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>5)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>コピー元：</t>
+    <rPh sb="3" eb="4">
+      <t>モト</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>作成されたbuildフォルダー中、全部ファイル及びサブフォルダー</t>
+  </si>
+  <si>
+    <t>コピー先：</t>
+    <rPh sb="3" eb="4">
+      <t>サキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>emsm/src/main/resources/static</t>
+  </si>
+  <si>
+    <t>作成されたbuildフォルダーをコピーする</t>
+    <rPh sb="0" eb="2">
+      <t>サクセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>6)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>index.jspを修正</t>
+    <rPh sb="10" eb="12">
+      <t>シュウセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>emsm\src\main\webapp\WEB-INF\index.jsp</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>同じファイルである修正。</t>
+    <rPh sb="0" eb="1">
+      <t>オナ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>シュウセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>REACTのbuildごと、ファイル名違うから。</t>
+    <rPh sb="18" eb="19">
+      <t>メイ</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>チガ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>面倒くさい！！！！！！！</t>
+    <rPh sb="0" eb="2">
+      <t>メンドウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>7)いつも通りにEMSMをリリース。</t>
+    <rPh sb="5" eb="6">
+      <t>トオ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -2033,6 +2259,582 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>342259</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>104853</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="図 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E3C7BD8B-7B2B-15E3-BA89-71B54EF60F9C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1341120" y="914400"/>
+          <a:ext cx="9059539" cy="562053"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>18364</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>209611</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="図 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BD5FDDBD-C7C9-4700-A43D-98363EE6B87E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1341120" y="1828800"/>
+          <a:ext cx="8735644" cy="438211"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>594361</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>154691</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="図 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{968955B3-028F-A9AD-4033-480FFB43BCAD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1341121" y="2971801"/>
+          <a:ext cx="8641080" cy="611890"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>647700</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>218380</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="図 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A942C841-DFCC-FC43-8D78-A870A9DA1557}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1341120" y="3886200"/>
+          <a:ext cx="8694420" cy="675580"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>45720</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>642369</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>103293</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="9" name="図 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A756E0A3-180C-863F-DDB0-D8063534C995}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1242060" y="5074920"/>
+          <a:ext cx="2753109" cy="3029373"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>15241</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>45720</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>396241</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>208811</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="10" name="図 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B261E6C3-6B02-A9E1-74D2-D9AB2F96AB47}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1356361" y="8503920"/>
+          <a:ext cx="5745480" cy="1306091"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>207955</xdr:colOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>86088</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="13" name="図 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{55197523-384A-95FD-1EDB-ACB70396E75C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1341120" y="10972800"/>
+          <a:ext cx="2219635" cy="2600688"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>65</xdr:row>
+      <xdr:rowOff>155513</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="14" name="図 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{817C38B5-6626-408A-3CAB-F271A51694A2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="670561" y="14630400"/>
+          <a:ext cx="7086599" cy="384113"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>579120</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>167640</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>646272</xdr:colOff>
+      <xdr:row>69</xdr:row>
+      <xdr:rowOff>139412</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="15" name="図 14">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4BB3ED13-990D-47B5-60CF-1848E4ABF6DD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7955280" y="13426440"/>
+          <a:ext cx="3419952" cy="2486372"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>624840</xdr:colOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>99060</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>274320</xdr:colOff>
+      <xdr:row>65</xdr:row>
+      <xdr:rowOff>137160</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="16" name="正方形/長方形 15">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0115086F-1305-CB6D-C529-CAEBE01EB8D7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4648200" y="14729460"/>
+          <a:ext cx="2331720" cy="266700"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>259080</xdr:colOff>
+      <xdr:row>68</xdr:row>
+      <xdr:rowOff>60960</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>281940</xdr:colOff>
+      <xdr:row>69</xdr:row>
+      <xdr:rowOff>83820</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="17" name="正方形/長方形 16">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FAE1F940-768A-4D30-81A7-70A779B58195}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8976360" y="15605760"/>
+          <a:ext cx="2034540" cy="251460"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>274320</xdr:colOff>
+      <xdr:row>65</xdr:row>
+      <xdr:rowOff>3810</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>259080</xdr:colOff>
+      <xdr:row>68</xdr:row>
+      <xdr:rowOff>186690</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="19" name="直線コネクタ 18">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F38CC0C8-5E08-8712-A394-A51412B3EFE4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="16" idx="3"/>
+          <a:endCxn id="17" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6979920" y="14862810"/>
+          <a:ext cx="1996440" cy="868680"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>9525</xdr:colOff>
       <xdr:row>3</xdr:row>
@@ -2518,7 +3320,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -2699,7 +3501,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -3551,7 +4353,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -4525,24 +5327,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DEDAA8CE-2D3B-44F3-A985-64FC25C1DAE1}">
   <dimension ref="B2:E18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="4.25" customWidth="1"/>
-    <col min="3" max="3" width="58.25" customWidth="1"/>
-    <col min="4" max="4" width="13.625" customWidth="1"/>
+    <col min="1" max="1" width="4.19921875" customWidth="1"/>
+    <col min="3" max="3" width="58.19921875" customWidth="1"/>
+    <col min="4" max="4" width="13.59765625" customWidth="1"/>
     <col min="5" max="5" width="13.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="2" spans="2:5" x14ac:dyDescent="0.45">
       <c r="C2" s="3" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="3" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="3" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B3" s="8" t="s">
         <v>113</v>
       </c>
@@ -4556,7 +5358,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="4" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="4" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B4" s="8">
         <v>1</v>
       </c>
@@ -4570,7 +5372,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="5" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="5" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B5" s="8">
         <v>2</v>
       </c>
@@ -4584,79 +5386,79 @@
         <v>118</v>
       </c>
     </row>
-    <row r="6" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="6" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B6" s="8"/>
       <c r="C6" s="8"/>
       <c r="D6" s="8"/>
       <c r="E6" s="8"/>
     </row>
-    <row r="7" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="7" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B7" s="8"/>
       <c r="C7" s="8"/>
       <c r="D7" s="8"/>
       <c r="E7" s="8"/>
     </row>
-    <row r="8" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="8" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B8" s="8"/>
       <c r="C8" s="8"/>
       <c r="D8" s="8"/>
       <c r="E8" s="8"/>
     </row>
-    <row r="9" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="9" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B9" s="8"/>
       <c r="C9" s="8"/>
       <c r="D9" s="8"/>
       <c r="E9" s="8"/>
     </row>
-    <row r="10" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="10" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B10" s="8"/>
       <c r="C10" s="8"/>
       <c r="D10" s="8"/>
       <c r="E10" s="8"/>
     </row>
-    <row r="11" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="11" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B11" s="8"/>
       <c r="C11" s="8"/>
       <c r="D11" s="8"/>
       <c r="E11" s="8"/>
     </row>
-    <row r="12" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="12" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B12" s="8"/>
       <c r="C12" s="8"/>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
     </row>
-    <row r="13" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="13" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B13" s="8"/>
       <c r="C13" s="8"/>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
     </row>
-    <row r="14" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="14" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B14" s="8"/>
       <c r="C14" s="8"/>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
     </row>
-    <row r="15" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="15" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B15" s="8"/>
       <c r="C15" s="8"/>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
     </row>
-    <row r="16" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="16" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B16" s="8"/>
       <c r="C16" s="8"/>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
     </row>
-    <row r="17" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="17" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B17" s="8"/>
       <c r="C17" s="8"/>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
     </row>
-    <row r="18" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="18" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B18" s="8"/>
       <c r="C18" s="8"/>
       <c r="D18" s="8"/>
@@ -4677,29 +5479,29 @@
       <selection activeCell="N6" sqref="N6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B4" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B5" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
         <v>53</v>
       </c>
@@ -4707,37 +5509,37 @@
         <v>60</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.45">
       <c r="C7" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.45">
       <c r="C8" s="3" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.45">
       <c r="C9" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.45">
       <c r="C10" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.45">
       <c r="C11" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.45">
       <c r="C12" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
         <v>59</v>
       </c>
@@ -4745,47 +5547,47 @@
         <v>61</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.45">
       <c r="C14" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.45">
       <c r="C15" s="3" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.45">
       <c r="C16" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="17" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="17" spans="2:7" x14ac:dyDescent="0.45">
       <c r="C17" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="18" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="18" spans="2:7" x14ac:dyDescent="0.45">
       <c r="C18" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="19" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="19" spans="2:7" x14ac:dyDescent="0.45">
       <c r="C19" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="21" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="21" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B21" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="22" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="22" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B22" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="23" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="23" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B23" t="s">
         <v>40</v>
       </c>
@@ -4793,53 +5595,53 @@
         <v>41</v>
       </c>
     </row>
-    <row r="95" spans="2:2" x14ac:dyDescent="0.4">
+    <row r="95" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B95" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="108" spans="2:3" x14ac:dyDescent="0.4">
+    <row r="108" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B108" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="109" spans="2:3" x14ac:dyDescent="0.4">
+    <row r="109" spans="2:3" x14ac:dyDescent="0.45">
       <c r="C109" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="110" spans="2:3" x14ac:dyDescent="0.4">
+    <row r="110" spans="2:3" x14ac:dyDescent="0.45">
       <c r="C110" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="122" spans="2:2" x14ac:dyDescent="0.4">
+    <row r="122" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B122" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="152" spans="2:2" s="7" customFormat="1" ht="16.5" x14ac:dyDescent="0.4"/>
-    <row r="159" spans="2:2" x14ac:dyDescent="0.4">
+    <row r="152" spans="2:2" s="7" customFormat="1" ht="16.2" x14ac:dyDescent="0.45"/>
+    <row r="159" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B159" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="186" spans="3:3" x14ac:dyDescent="0.4">
+    <row r="186" spans="3:3" x14ac:dyDescent="0.45">
       <c r="C186" s="4"/>
     </row>
-    <row r="192" spans="3:3" x14ac:dyDescent="0.4">
+    <row r="192" spans="3:3" x14ac:dyDescent="0.45">
       <c r="C192" s="4"/>
     </row>
-    <row r="193" spans="3:3" x14ac:dyDescent="0.4">
+    <row r="193" spans="3:3" x14ac:dyDescent="0.45">
       <c r="C193" s="4"/>
     </row>
-    <row r="194" spans="3:3" x14ac:dyDescent="0.4">
+    <row r="194" spans="3:3" x14ac:dyDescent="0.45">
       <c r="C194" s="4"/>
     </row>
-    <row r="195" spans="3:3" x14ac:dyDescent="0.4">
+    <row r="195" spans="3:3" x14ac:dyDescent="0.45">
       <c r="C195" s="4"/>
     </row>
-    <row r="196" spans="3:3" x14ac:dyDescent="0.4">
+    <row r="196" spans="3:3" x14ac:dyDescent="0.45">
       <c r="C196" s="4"/>
     </row>
   </sheetData>
@@ -4854,44 +5656,44 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A4D9C84-5165-48FE-9B50-E02CCC93A279}">
   <dimension ref="A1:G167"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
+    <sheetView topLeftCell="A43" workbookViewId="0">
       <selection activeCell="M8" sqref="M8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1" spans="1:7" ht="24" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:7" ht="22.2" x14ac:dyDescent="0.45">
       <c r="A1" s="5" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A2" s="6" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="24" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:7" ht="22.2" x14ac:dyDescent="0.45">
       <c r="A3" s="5"/>
       <c r="B3" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.45">
       <c r="B6" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.45">
       <c r="B7" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.45">
       <c r="B8" t="s">
         <v>40</v>
       </c>
@@ -4899,42 +5701,42 @@
         <v>41</v>
       </c>
     </row>
-    <row r="80" spans="2:2" x14ac:dyDescent="0.4">
+    <row r="80" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B80" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="93" spans="2:2" x14ac:dyDescent="0.4">
+    <row r="93" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B93" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="130" spans="2:2" x14ac:dyDescent="0.4">
+    <row r="130" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B130" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="155" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="155" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A155" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="157" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="157" spans="1:3" x14ac:dyDescent="0.45">
       <c r="C157" s="4"/>
     </row>
-    <row r="163" spans="3:3" x14ac:dyDescent="0.4">
+    <row r="163" spans="3:3" x14ac:dyDescent="0.45">
       <c r="C163" s="4"/>
     </row>
-    <row r="164" spans="3:3" x14ac:dyDescent="0.4">
+    <row r="164" spans="3:3" x14ac:dyDescent="0.45">
       <c r="C164" s="4"/>
     </row>
-    <row r="165" spans="3:3" x14ac:dyDescent="0.4">
+    <row r="165" spans="3:3" x14ac:dyDescent="0.45">
       <c r="C165" s="4"/>
     </row>
-    <row r="166" spans="3:3" x14ac:dyDescent="0.4">
+    <row r="166" spans="3:3" x14ac:dyDescent="0.45">
       <c r="C166" s="4"/>
     </row>
-    <row r="167" spans="3:3" x14ac:dyDescent="0.4">
+    <row r="167" spans="3:3" x14ac:dyDescent="0.45">
       <c r="C167" s="4"/>
     </row>
   </sheetData>
@@ -4946,6 +5748,155 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F5877FB-3E20-4FED-AF1B-EDCA762A7419}">
+  <dimension ref="A2:H72"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
+      <selection activeCell="I3" sqref="I3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <sheetData>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A2" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A3" t="s">
+        <v>121</v>
+      </c>
+      <c r="B3" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="B4" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="B8" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A12" t="s">
+        <v>125</v>
+      </c>
+      <c r="B12" t="s">
+        <v>126</v>
+      </c>
+      <c r="D12" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="B13" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="B17" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A22" t="s">
+        <v>129</v>
+      </c>
+      <c r="B22" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A37" t="s">
+        <v>131</v>
+      </c>
+      <c r="B37" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="B44" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="C45" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="C46" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A47" t="s">
+        <v>136</v>
+      </c>
+      <c r="B47" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="B48" t="s">
+        <v>137</v>
+      </c>
+      <c r="D48" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="B49" t="s">
+        <v>139</v>
+      </c>
+      <c r="D49" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A63" t="s">
+        <v>142</v>
+      </c>
+      <c r="B63" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="B64" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="H68" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="H69" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="H70" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A72" t="s">
+        <v>148</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{53058BDE-ADE0-4E30-93F3-1BDF3E0DDBDE}">
   <dimension ref="A1:L165"/>
   <sheetViews>
@@ -4953,72 +5904,72 @@
       <selection activeCell="O13" sqref="O13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="5.375" customWidth="1"/>
+    <col min="1" max="1" width="5.3984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B3" s="1" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="27" spans="12:12" x14ac:dyDescent="0.4">
+    <row r="27" spans="12:12" x14ac:dyDescent="0.45">
       <c r="L27" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B37" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A38" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="51" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A51" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="65" spans="2:2" x14ac:dyDescent="0.4">
+    <row r="65" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B65" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="86" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A86" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="87" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A87" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="88" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B88" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="141" spans="2:2" x14ac:dyDescent="0.4">
+    <row r="141" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B141" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="165" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="165" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A165" t="s">
         <v>7</v>
       </c>
@@ -5034,7 +5985,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9EFD327B-EA93-4098-93E5-00E7127EFD18}">
   <dimension ref="A2:C20"/>
   <sheetViews>
@@ -5042,87 +5993,87 @@
       <selection activeCell="O13" sqref="O13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="5.75" customWidth="1"/>
+    <col min="1" max="1" width="5.69921875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B2" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B3" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B4" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B5" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.45">
       <c r="C6" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B7" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.45">
       <c r="C8" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.45">
       <c r="C9" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B10" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B11" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A15" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A16" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B17" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B18" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A19" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B20" s="1" t="s">
         <v>12</v>
       </c>
@@ -5138,7 +6089,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{73B6CBAD-4C55-439D-AC3F-FA2481937E50}">
   <dimension ref="A2:M354"/>
   <sheetViews>
@@ -5146,65 +6097,65 @@
       <selection activeCell="O13" sqref="O13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="9" max="9" width="6.625" customWidth="1"/>
+    <col min="9" max="9" width="6.59765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A19" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="41" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A41" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="91" spans="10:10" x14ac:dyDescent="0.4">
+    <row r="91" spans="10:10" x14ac:dyDescent="0.45">
       <c r="J91" s="1" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="100" spans="10:10" x14ac:dyDescent="0.4">
+    <row r="100" spans="10:10" x14ac:dyDescent="0.45">
       <c r="J100" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="195" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="195" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A195" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="223" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="223" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A223" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="246" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="246" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B246" s="2"/>
     </row>
-    <row r="247" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="247" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A247" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="291" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="291" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A291" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="319" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="319" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A319" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="354" spans="13:13" x14ac:dyDescent="0.4">
+    <row r="354" spans="13:13" x14ac:dyDescent="0.45">
       <c r="M354" s="3" t="s">
         <v>35</v>
       </c>
@@ -5219,7 +6170,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{66F7A97C-40FD-43B3-AFC2-A7C3DEA10C03}">
   <dimension ref="A2:D270"/>
   <sheetViews>
@@ -5227,29 +6178,29 @@
       <selection activeCell="O13" sqref="O13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B3" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B4" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B5" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
         <v>73</v>
       </c>
@@ -5257,192 +6208,192 @@
         <v>74</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B8" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="127" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="127" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A127" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="139" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="139" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A139" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="140" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="140" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B140" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="141" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="141" spans="1:4" x14ac:dyDescent="0.45">
       <c r="C141" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="142" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="142" spans="1:4" x14ac:dyDescent="0.45">
       <c r="C142" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="143" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="143" spans="1:4" x14ac:dyDescent="0.45">
       <c r="D143" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="144" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="144" spans="1:4" x14ac:dyDescent="0.45">
       <c r="D144" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="145" spans="2:4" x14ac:dyDescent="0.4">
+    <row r="145" spans="2:4" x14ac:dyDescent="0.45">
       <c r="C145" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="146" spans="2:4" x14ac:dyDescent="0.4">
+    <row r="146" spans="2:4" x14ac:dyDescent="0.45">
       <c r="C146" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="147" spans="2:4" x14ac:dyDescent="0.4">
+    <row r="147" spans="2:4" x14ac:dyDescent="0.45">
       <c r="D147" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="148" spans="2:4" x14ac:dyDescent="0.4">
+    <row r="148" spans="2:4" x14ac:dyDescent="0.45">
       <c r="D148" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="149" spans="2:4" x14ac:dyDescent="0.4">
+    <row r="149" spans="2:4" x14ac:dyDescent="0.45">
       <c r="C149" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="152" spans="2:4" x14ac:dyDescent="0.4">
+    <row r="152" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B152" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="153" spans="2:4" x14ac:dyDescent="0.4">
+    <row r="153" spans="2:4" x14ac:dyDescent="0.45">
       <c r="C153" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="154" spans="2:4" x14ac:dyDescent="0.4">
+    <row r="154" spans="2:4" x14ac:dyDescent="0.45">
       <c r="C154" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="155" spans="2:4" x14ac:dyDescent="0.4">
+    <row r="155" spans="2:4" x14ac:dyDescent="0.45">
       <c r="C155" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="156" spans="2:4" x14ac:dyDescent="0.4">
+    <row r="156" spans="2:4" x14ac:dyDescent="0.45">
       <c r="C156" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="157" spans="2:4" x14ac:dyDescent="0.4">
+    <row r="157" spans="2:4" x14ac:dyDescent="0.45">
       <c r="C157" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="159" spans="2:4" x14ac:dyDescent="0.4">
+    <row r="159" spans="2:4" x14ac:dyDescent="0.45">
       <c r="C159" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="160" spans="2:4" x14ac:dyDescent="0.4">
+    <row r="160" spans="2:4" x14ac:dyDescent="0.45">
       <c r="C160" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="161" spans="2:3" x14ac:dyDescent="0.4">
+    <row r="161" spans="2:3" x14ac:dyDescent="0.45">
       <c r="C161" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="163" spans="2:3" x14ac:dyDescent="0.4">
+    <row r="163" spans="2:3" x14ac:dyDescent="0.45">
       <c r="C163" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="164" spans="2:3" x14ac:dyDescent="0.4">
+    <row r="164" spans="2:3" x14ac:dyDescent="0.45">
       <c r="C164" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="166" spans="2:3" x14ac:dyDescent="0.4">
+    <row r="166" spans="2:3" x14ac:dyDescent="0.45">
       <c r="C166" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="168" spans="2:3" x14ac:dyDescent="0.4">
+    <row r="168" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B168" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="169" spans="2:3" x14ac:dyDescent="0.4">
+    <row r="169" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B169" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="194" spans="2:2" x14ac:dyDescent="0.4">
+    <row r="194" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B194" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="195" spans="2:2" x14ac:dyDescent="0.4">
+    <row r="195" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B195" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="210" spans="2:3" x14ac:dyDescent="0.4">
+    <row r="210" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B210" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="211" spans="2:3" x14ac:dyDescent="0.4">
+    <row r="211" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B211" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="212" spans="2:3" x14ac:dyDescent="0.4">
+    <row r="212" spans="2:3" x14ac:dyDescent="0.45">
       <c r="C212" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="232" spans="3:3" x14ac:dyDescent="0.4">
+    <row r="232" spans="3:3" x14ac:dyDescent="0.45">
       <c r="C232" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="238" spans="3:3" x14ac:dyDescent="0.4">
+    <row r="238" spans="3:3" x14ac:dyDescent="0.45">
       <c r="C238" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="257" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="257" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B257" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="258" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="258" spans="1:3" x14ac:dyDescent="0.45">
       <c r="C258" s="1" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="268" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="268" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A268" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="270" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="270" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A270" t="s">
         <v>110</v>
       </c>
